--- a/Assets/GameMain/ExcelTable/pet_config_new.xlsx
+++ b/Assets/GameMain/ExcelTable/pet_config_new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8CE06-96EA-4A40-B949-AA5CF8911B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF3A40-5AC6-4032-8E35-20A5CE8E25B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,11 +94,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pet_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1014,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1038,12 +1038,12 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
